--- a/df_claims_ratings.xlsx
+++ b/df_claims_ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quint/Documents/Quint/Working Talent/WT_eindopdracht/WT_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A66C1-DA4C-DA4F-9AC4-8B5153FE6B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B77A44-C6DC-9148-85C3-E79F1B19183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="100">
   <si>
     <t>State</t>
   </si>
@@ -118,7 +118,28 @@
     <t>Rating_Bodily_Cost_Per_Claim</t>
   </si>
   <si>
+    <t>Rel_Fatality</t>
+  </si>
+  <si>
+    <t>Average total liability profit ratio (%)</t>
+  </si>
+  <si>
+    <t>Average bodily liability profit ratio (%)</t>
+  </si>
+  <si>
+    <t>Categories Total Liability Profit Ratio</t>
+  </si>
+  <si>
+    <t>Categories Bodily Liability Profit Ratio</t>
+  </si>
+  <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>20 - 25%</t>
+  </si>
+  <si>
+    <t>20 - 30%</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -128,6 +149,9 @@
   </si>
   <si>
     <t>Arkansas</t>
+  </si>
+  <si>
+    <t>25 - 30%</t>
   </si>
   <si>
     <t>California</t>
@@ -142,7 +166,13 @@
     <t>Delaware</t>
   </si>
   <si>
+    <t>10 - 20%</t>
+  </si>
+  <si>
     <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>15 - 20%</t>
   </si>
   <si>
     <t>Florida</t>
@@ -154,7 +184,16 @@
     <t>Hawaii</t>
   </si>
   <si>
+    <t>&gt; 30%</t>
+  </si>
+  <si>
+    <t>&gt; 40%</t>
+  </si>
+  <si>
     <t>Idaho</t>
+  </si>
+  <si>
+    <t>30 - 40%</t>
   </si>
   <si>
     <t>Illinois</t>
@@ -217,7 +256,13 @@
     <t>New York</t>
   </si>
   <si>
+    <t>&lt; 10%</t>
+  </si>
+  <si>
     <t>North Carolina</t>
+  </si>
+  <si>
+    <t>&lt; 15%</t>
   </si>
   <si>
     <t>North Dakota</t>
@@ -248,9 +293,6 @@
   </si>
   <si>
     <t>Texas</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Utah</t>
@@ -641,21 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF160"/>
+  <dimension ref="A1:AK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q106" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="29" max="29" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,10 +794,25 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -847,10 +904,25 @@
       <c r="AF2">
         <v>3</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="AI2">
+        <v>21.92</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -942,10 +1014,25 @@
       <c r="AF3">
         <v>3</v>
       </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="AI3">
+        <v>21.92</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -1037,10 +1124,25 @@
       <c r="AF4">
         <v>3</v>
       </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="AI4">
+        <v>21.92</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -1132,10 +1234,22 @@
       <c r="AF5">
         <v>2</v>
       </c>
+      <c r="AH5">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="AI5">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1227,10 +1341,22 @@
       <c r="AF6">
         <v>2</v>
       </c>
+      <c r="AH6">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="AI6">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -1322,10 +1448,22 @@
       <c r="AF7">
         <v>2</v>
       </c>
+      <c r="AH7">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="AI7">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -1417,10 +1555,25 @@
       <c r="AF8">
         <v>4</v>
       </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>23.08</v>
+      </c>
+      <c r="AI8">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -1512,10 +1665,25 @@
       <c r="AF9">
         <v>4</v>
       </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>23.08</v>
+      </c>
+      <c r="AI9">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1607,10 +1775,25 @@
       <c r="AF10">
         <v>4</v>
       </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>23.08</v>
+      </c>
+      <c r="AI10">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1702,10 +1885,25 @@
       <c r="AF11">
         <v>5</v>
       </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>27.86</v>
+      </c>
+      <c r="AI11">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1797,10 +1995,25 @@
       <c r="AF12">
         <v>5</v>
       </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>27.86</v>
+      </c>
+      <c r="AI12">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1892,10 +2105,25 @@
       <c r="AF13">
         <v>5</v>
       </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>27.86</v>
+      </c>
+      <c r="AI13">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>2019</v>
@@ -1987,10 +2215,25 @@
       <c r="AF14">
         <v>3</v>
       </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="AI14">
+        <v>28.42</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>2018</v>
@@ -2082,10 +2325,25 @@
       <c r="AF15">
         <v>3</v>
       </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="AI15">
+        <v>28.42</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2177,10 +2435,25 @@
       <c r="AF16">
         <v>3</v>
       </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="AI16">
+        <v>28.42</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -2272,10 +2545,25 @@
       <c r="AF17">
         <v>2</v>
       </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="AI17">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>2018</v>
@@ -2367,10 +2655,25 @@
       <c r="AF18">
         <v>2</v>
       </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="AI18">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -2462,10 +2765,25 @@
       <c r="AF19">
         <v>2</v>
       </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="AI19">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>2019</v>
@@ -2557,10 +2875,25 @@
       <c r="AF20">
         <v>2</v>
       </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="AI20">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -2652,10 +2985,25 @@
       <c r="AF21">
         <v>2</v>
       </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="AI21">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -2747,10 +3095,25 @@
       <c r="AF22">
         <v>2</v>
       </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="AI22">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -2842,10 +3205,25 @@
       <c r="AF23">
         <v>3</v>
       </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AH23">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="AI23">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -2937,10 +3315,25 @@
       <c r="AF24">
         <v>3</v>
       </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="AI24">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -3032,10 +3425,25 @@
       <c r="AF25">
         <v>3</v>
       </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="AI25">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -3127,10 +3535,25 @@
       <c r="AF26">
         <v>5</v>
       </c>
+      <c r="AG26">
+        <v>5</v>
+      </c>
+      <c r="AH26">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="AI26">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -3222,10 +3645,25 @@
       <c r="AF27">
         <v>5</v>
       </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="AI27">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -3317,10 +3755,25 @@
       <c r="AF28">
         <v>5</v>
       </c>
+      <c r="AG28">
+        <v>5</v>
+      </c>
+      <c r="AH28">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="AI28">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -3412,10 +3865,25 @@
       <c r="AF29">
         <v>2</v>
       </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="AI29">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -3507,10 +3975,25 @@
       <c r="AF30">
         <v>2</v>
       </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="AI30">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -3602,10 +4085,25 @@
       <c r="AF31">
         <v>2</v>
       </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="AI31">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>2019</v>
@@ -3697,10 +4195,25 @@
       <c r="AF32">
         <v>3</v>
       </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="AI32">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>2018</v>
@@ -3792,10 +4305,25 @@
       <c r="AF33">
         <v>3</v>
       </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="AI33">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -3887,10 +4415,25 @@
       <c r="AF34">
         <v>3</v>
       </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="AI34">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -3982,10 +4525,22 @@
       <c r="AF35">
         <v>1</v>
       </c>
+      <c r="AH35">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="AI35">
+        <v>45.77</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -4077,10 +4632,22 @@
       <c r="AF36">
         <v>1</v>
       </c>
+      <c r="AH36">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="AI36">
+        <v>45.77</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>2017</v>
@@ -4172,10 +4739,22 @@
       <c r="AF37">
         <v>1</v>
       </c>
+      <c r="AH37">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="AI37">
+        <v>45.77</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -4267,10 +4846,25 @@
       <c r="AF38">
         <v>4</v>
       </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="AI38">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -4362,10 +4956,25 @@
       <c r="AF39">
         <v>4</v>
       </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="AI39">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -4457,10 +5066,25 @@
       <c r="AF40">
         <v>4</v>
       </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="AI40">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -4552,10 +5176,25 @@
       <c r="AF41">
         <v>3</v>
       </c>
+      <c r="AG41">
+        <v>2</v>
+      </c>
+      <c r="AH41">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="AI41">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -4647,10 +5286,25 @@
       <c r="AF42">
         <v>3</v>
       </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="AI42">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>2017</v>
@@ -4742,10 +5396,25 @@
       <c r="AF43">
         <v>3</v>
       </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="AI43">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -4837,10 +5506,25 @@
       <c r="AF44">
         <v>3</v>
       </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="AI44">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -4932,10 +5616,25 @@
       <c r="AF45">
         <v>3</v>
       </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="AI45">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -5027,10 +5726,25 @@
       <c r="AF46">
         <v>3</v>
       </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="AI46">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -5122,10 +5836,25 @@
       <c r="AF47">
         <v>4</v>
       </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>29.27</v>
+      </c>
+      <c r="AI47">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>2018</v>
@@ -5217,10 +5946,25 @@
       <c r="AF48">
         <v>4</v>
       </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>29.27</v>
+      </c>
+      <c r="AI48">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -5312,10 +6056,25 @@
       <c r="AF49">
         <v>4</v>
       </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>29.27</v>
+      </c>
+      <c r="AI49">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>2019</v>
@@ -5407,10 +6166,25 @@
       <c r="AF50">
         <v>2</v>
       </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
+        <v>26</v>
+      </c>
+      <c r="AI50">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>2018</v>
@@ -5502,10 +6276,25 @@
       <c r="AF51">
         <v>2</v>
       </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>26</v>
+      </c>
+      <c r="AI51">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>2017</v>
@@ -5597,10 +6386,25 @@
       <c r="AF52">
         <v>2</v>
       </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>26</v>
+      </c>
+      <c r="AI52">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -5692,10 +6496,25 @@
       <c r="AF53">
         <v>3</v>
       </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="AI53">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -5787,10 +6606,25 @@
       <c r="AF54">
         <v>3</v>
       </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="AI54">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -5882,10 +6716,25 @@
       <c r="AF55">
         <v>3</v>
       </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="AI55">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -5977,10 +6826,25 @@
       <c r="AF56">
         <v>4</v>
       </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="AI56">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>2018</v>
@@ -6072,10 +6936,25 @@
       <c r="AF57">
         <v>4</v>
       </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="AI57">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -6167,10 +7046,25 @@
       <c r="AF58">
         <v>4</v>
       </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="AI58">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2019</v>
@@ -6262,10 +7156,25 @@
       <c r="AF59">
         <v>3</v>
       </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="AI59">
+        <v>25.7</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -6357,10 +7266,25 @@
       <c r="AF60">
         <v>3</v>
       </c>
+      <c r="AG60">
+        <v>2</v>
+      </c>
+      <c r="AH60">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="AI60">
+        <v>25.7</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -6452,10 +7376,25 @@
       <c r="AF61">
         <v>3</v>
       </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="AI61">
+        <v>25.7</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -6547,10 +7486,25 @@
       <c r="AF62">
         <v>5</v>
       </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
+      <c r="AH62">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="AI62">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -6639,10 +7593,25 @@
       <c r="AF63">
         <v>5</v>
       </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="AI63">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -6734,10 +7703,25 @@
       <c r="AF64">
         <v>5</v>
       </c>
+      <c r="AG64">
+        <v>2</v>
+      </c>
+      <c r="AH64">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="AI64">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -6829,10 +7813,25 @@
       <c r="AF65">
         <v>5</v>
       </c>
+      <c r="AG65">
+        <v>4</v>
+      </c>
+      <c r="AH65">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="AI65">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>2018</v>
@@ -6924,10 +7923,25 @@
       <c r="AF66">
         <v>5</v>
       </c>
+      <c r="AG66">
+        <v>4</v>
+      </c>
+      <c r="AH66">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="AI66">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -7019,10 +8033,25 @@
       <c r="AF67">
         <v>5</v>
       </c>
+      <c r="AG67">
+        <v>4</v>
+      </c>
+      <c r="AH67">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="AI67">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>2019</v>
@@ -7114,10 +8143,25 @@
       <c r="AF68">
         <v>1</v>
       </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="AI68">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2018</v>
@@ -7209,10 +8253,25 @@
       <c r="AF69">
         <v>1</v>
       </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="AI69">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>2017</v>
@@ -7304,10 +8363,25 @@
       <c r="AF70">
         <v>1</v>
       </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="AI70">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>2019</v>
@@ -7399,10 +8473,25 @@
       <c r="AF71">
         <v>2</v>
       </c>
+      <c r="AG71">
+        <v>3</v>
+      </c>
+      <c r="AH71">
+        <v>29.25</v>
+      </c>
+      <c r="AI71">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -7494,10 +8583,25 @@
       <c r="AF72">
         <v>2</v>
       </c>
+      <c r="AG72">
+        <v>3</v>
+      </c>
+      <c r="AH72">
+        <v>29.25</v>
+      </c>
+      <c r="AI72">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>2017</v>
@@ -7589,10 +8693,25 @@
       <c r="AF73">
         <v>2</v>
       </c>
+      <c r="AG73">
+        <v>3</v>
+      </c>
+      <c r="AH73">
+        <v>29.25</v>
+      </c>
+      <c r="AI73">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>2019</v>
@@ -7684,10 +8803,25 @@
       <c r="AF74">
         <v>4</v>
       </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <v>21.19</v>
+      </c>
+      <c r="AI74">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -7779,10 +8913,25 @@
       <c r="AF75">
         <v>4</v>
       </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>21.19</v>
+      </c>
+      <c r="AI75">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -7874,10 +9023,25 @@
       <c r="AF76">
         <v>4</v>
       </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>21.19</v>
+      </c>
+      <c r="AI76">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -7969,10 +9133,25 @@
       <c r="AF77">
         <v>3</v>
       </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="AI77">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -8064,10 +9243,25 @@
       <c r="AF78">
         <v>3</v>
       </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="AI78">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B79">
         <v>2017</v>
@@ -8159,10 +9353,25 @@
       <c r="AF79">
         <v>3</v>
       </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="AI79">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -8254,10 +9463,25 @@
       <c r="AF80">
         <v>2</v>
       </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="AI80">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -8349,10 +9573,25 @@
       <c r="AF81">
         <v>2</v>
       </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="AI81">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B82">
         <v>2017</v>
@@ -8444,10 +9683,25 @@
       <c r="AF82">
         <v>2</v>
       </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="AI82">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B83">
         <v>2019</v>
@@ -8539,10 +9793,25 @@
       <c r="AF83">
         <v>4</v>
       </c>
+      <c r="AG83">
+        <v>2</v>
+      </c>
+      <c r="AH83">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="AI83">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -8634,10 +9903,25 @@
       <c r="AF84">
         <v>4</v>
       </c>
+      <c r="AG84">
+        <v>2</v>
+      </c>
+      <c r="AH84">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="AI84">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>2017</v>
@@ -8729,10 +10013,25 @@
       <c r="AF85">
         <v>4</v>
       </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="AI85">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B86">
         <v>2019</v>
@@ -8824,10 +10123,25 @@
       <c r="AF86">
         <v>2</v>
       </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="AI86">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B87">
         <v>2018</v>
@@ -8919,10 +10233,25 @@
       <c r="AF87">
         <v>2</v>
       </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="AI87">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B88">
         <v>2017</v>
@@ -9014,10 +10343,25 @@
       <c r="AF88">
         <v>2</v>
       </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="AI88">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B89">
         <v>2019</v>
@@ -9109,10 +10453,25 @@
       <c r="AF89">
         <v>3</v>
       </c>
+      <c r="AG89">
+        <v>3</v>
+      </c>
+      <c r="AH89">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="AI89">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B90">
         <v>2018</v>
@@ -9204,10 +10563,25 @@
       <c r="AF90">
         <v>3</v>
       </c>
+      <c r="AG90">
+        <v>3</v>
+      </c>
+      <c r="AH90">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="AI90">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B91">
         <v>2017</v>
@@ -9299,10 +10673,25 @@
       <c r="AF91">
         <v>3</v>
       </c>
+      <c r="AG91">
+        <v>3</v>
+      </c>
+      <c r="AH91">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="AI91">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>2019</v>
@@ -9394,10 +10783,25 @@
       <c r="AF92">
         <v>1</v>
       </c>
+      <c r="AG92">
+        <v>3</v>
+      </c>
+      <c r="AH92">
+        <v>25.12</v>
+      </c>
+      <c r="AI92">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B93">
         <v>2018</v>
@@ -9489,10 +10893,25 @@
       <c r="AF93">
         <v>1</v>
       </c>
+      <c r="AG93">
+        <v>3</v>
+      </c>
+      <c r="AH93">
+        <v>25.12</v>
+      </c>
+      <c r="AI93">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B94">
         <v>2017</v>
@@ -9584,10 +11003,25 @@
       <c r="AF94">
         <v>1</v>
       </c>
+      <c r="AG94">
+        <v>3</v>
+      </c>
+      <c r="AH94">
+        <v>25.12</v>
+      </c>
+      <c r="AI94">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B95">
         <v>2019</v>
@@ -9679,10 +11113,25 @@
       <c r="AF95">
         <v>4</v>
       </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
+      <c r="AH95">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="AI95">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>2018</v>
@@ -9774,10 +11223,25 @@
       <c r="AF96">
         <v>4</v>
       </c>
+      <c r="AG96">
+        <v>1</v>
+      </c>
+      <c r="AH96">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="AI96">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -9869,10 +11333,25 @@
       <c r="AF97">
         <v>4</v>
       </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="AI97">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -9964,10 +11443,25 @@
       <c r="AF98">
         <v>1</v>
       </c>
+      <c r="AG98">
+        <v>4</v>
+      </c>
+      <c r="AH98">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="AI98">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>2018</v>
@@ -10059,10 +11553,25 @@
       <c r="AF99">
         <v>1</v>
       </c>
+      <c r="AG99">
+        <v>4</v>
+      </c>
+      <c r="AH99">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="AI99">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B100">
         <v>2017</v>
@@ -10154,10 +11663,25 @@
       <c r="AF100">
         <v>1</v>
       </c>
+      <c r="AG100">
+        <v>4</v>
+      </c>
+      <c r="AH100">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="AI100">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -10249,10 +11773,25 @@
       <c r="AF101">
         <v>5</v>
       </c>
+      <c r="AG101">
+        <v>1</v>
+      </c>
+      <c r="AH101">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="AI101">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B102">
         <v>2018</v>
@@ -10344,10 +11883,25 @@
       <c r="AF102">
         <v>5</v>
       </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="AI102">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B103">
         <v>2017</v>
@@ -10439,10 +11993,25 @@
       <c r="AF103">
         <v>5</v>
       </c>
+      <c r="AG103">
+        <v>1</v>
+      </c>
+      <c r="AH103">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="AI103">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B104">
         <v>2019</v>
@@ -10534,10 +12103,25 @@
       <c r="AF104">
         <v>2</v>
       </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="AI104">
+        <v>42.44</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B105">
         <v>2018</v>
@@ -10629,10 +12213,25 @@
       <c r="AF105">
         <v>2</v>
       </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
+      <c r="AH105">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="AI105">
+        <v>42.44</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>2017</v>
@@ -10724,10 +12323,25 @@
       <c r="AF106">
         <v>2</v>
       </c>
+      <c r="AG106">
+        <v>1</v>
+      </c>
+      <c r="AH106">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="AI106">
+        <v>42.44</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B107">
         <v>2019</v>
@@ -10819,10 +12433,25 @@
       <c r="AF107">
         <v>5</v>
       </c>
+      <c r="AG107">
+        <v>2</v>
+      </c>
+      <c r="AH107">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="AI107">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B108">
         <v>2018</v>
@@ -10914,10 +12543,25 @@
       <c r="AF108">
         <v>5</v>
       </c>
+      <c r="AG108">
+        <v>2</v>
+      </c>
+      <c r="AH108">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="AI108">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>2017</v>
@@ -11009,10 +12653,25 @@
       <c r="AF109">
         <v>5</v>
       </c>
+      <c r="AG109">
+        <v>2</v>
+      </c>
+      <c r="AH109">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="AI109">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -11104,10 +12763,25 @@
       <c r="AF110">
         <v>4</v>
       </c>
+      <c r="AG110">
+        <v>1</v>
+      </c>
+      <c r="AH110">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="AI110">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B111">
         <v>2018</v>
@@ -11199,10 +12873,25 @@
       <c r="AF111">
         <v>4</v>
       </c>
+      <c r="AG111">
+        <v>1</v>
+      </c>
+      <c r="AH111">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="AI111">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B112">
         <v>2017</v>
@@ -11294,10 +12983,25 @@
       <c r="AF112">
         <v>4</v>
       </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AH112">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="AI112">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -11389,10 +13093,25 @@
       <c r="AF113">
         <v>4</v>
       </c>
+      <c r="AG113">
+        <v>2</v>
+      </c>
+      <c r="AH113">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="AI113">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B114">
         <v>2018</v>
@@ -11484,10 +13203,25 @@
       <c r="AF114">
         <v>4</v>
       </c>
+      <c r="AG114">
+        <v>2</v>
+      </c>
+      <c r="AH114">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="AI114">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B115">
         <v>2017</v>
@@ -11579,10 +13313,25 @@
       <c r="AF115">
         <v>4</v>
       </c>
+      <c r="AG115">
+        <v>2</v>
+      </c>
+      <c r="AH115">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="AI115">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B116">
         <v>2019</v>
@@ -11674,10 +13423,25 @@
       <c r="AF116">
         <v>2</v>
       </c>
+      <c r="AG116">
+        <v>2</v>
+      </c>
+      <c r="AH116">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="AI116">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B117">
         <v>2018</v>
@@ -11769,10 +13533,25 @@
       <c r="AF117">
         <v>2</v>
       </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="AI117">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B118">
         <v>2017</v>
@@ -11864,10 +13643,25 @@
       <c r="AF118">
         <v>2</v>
       </c>
+      <c r="AG118">
+        <v>2</v>
+      </c>
+      <c r="AH118">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="AI118">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B119">
         <v>2019</v>
@@ -11959,10 +13753,25 @@
       <c r="AF119">
         <v>4</v>
       </c>
+      <c r="AG119">
+        <v>4</v>
+      </c>
+      <c r="AH119">
+        <v>24.44</v>
+      </c>
+      <c r="AI119">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -12054,10 +13863,25 @@
       <c r="AF120">
         <v>4</v>
       </c>
+      <c r="AG120">
+        <v>4</v>
+      </c>
+      <c r="AH120">
+        <v>24.44</v>
+      </c>
+      <c r="AI120">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B121">
         <v>2017</v>
@@ -12149,10 +13973,25 @@
       <c r="AF121">
         <v>4</v>
       </c>
+      <c r="AG121">
+        <v>4</v>
+      </c>
+      <c r="AH121">
+        <v>24.44</v>
+      </c>
+      <c r="AI121">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B122">
         <v>2019</v>
@@ -12244,10 +14083,25 @@
       <c r="AF122">
         <v>5</v>
       </c>
+      <c r="AG122">
+        <v>1</v>
+      </c>
+      <c r="AH122">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="AI122">
+        <v>23.62</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B123">
         <v>2018</v>
@@ -12339,10 +14193,25 @@
       <c r="AF123">
         <v>5</v>
       </c>
+      <c r="AG123">
+        <v>1</v>
+      </c>
+      <c r="AH123">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="AI123">
+        <v>23.62</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B124">
         <v>2017</v>
@@ -12434,10 +14303,25 @@
       <c r="AF124">
         <v>5</v>
       </c>
+      <c r="AG124">
+        <v>1</v>
+      </c>
+      <c r="AH124">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="AI124">
+        <v>23.62</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -12529,10 +14413,25 @@
       <c r="AF125">
         <v>3</v>
       </c>
+      <c r="AG125">
+        <v>1</v>
+      </c>
+      <c r="AH125">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="AI125">
+        <v>43.82</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B126">
         <v>2018</v>
@@ -12624,10 +14523,25 @@
       <c r="AF126">
         <v>3</v>
       </c>
+      <c r="AG126">
+        <v>1</v>
+      </c>
+      <c r="AH126">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="AI126">
+        <v>43.82</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B127">
         <v>2017</v>
@@ -12719,10 +14633,25 @@
       <c r="AF127">
         <v>3</v>
       </c>
+      <c r="AG127">
+        <v>1</v>
+      </c>
+      <c r="AH127">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="AI127">
+        <v>43.82</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -12814,10 +14743,25 @@
       <c r="AF128">
         <v>3</v>
       </c>
+      <c r="AG128">
+        <v>1</v>
+      </c>
+      <c r="AH128">
+        <v>24.77</v>
+      </c>
+      <c r="AI128">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B129">
         <v>2018</v>
@@ -12909,10 +14853,25 @@
       <c r="AF129">
         <v>3</v>
       </c>
+      <c r="AG129">
+        <v>1</v>
+      </c>
+      <c r="AH129">
+        <v>24.77</v>
+      </c>
+      <c r="AI129">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B130">
         <v>2017</v>
@@ -13004,10 +14963,25 @@
       <c r="AF130">
         <v>3</v>
       </c>
+      <c r="AG130">
+        <v>1</v>
+      </c>
+      <c r="AH130">
+        <v>24.77</v>
+      </c>
+      <c r="AI130">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -13081,13 +15055,25 @@
       <c r="AE131">
         <v>5</v>
       </c>
-      <c r="AF131" t="s">
-        <v>76</v>
+      <c r="AG131">
+        <v>1</v>
+      </c>
+      <c r="AH131">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="AI131">
+        <v>26.72</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B132">
         <v>2018</v>
@@ -13161,13 +15147,25 @@
       <c r="AE132">
         <v>5</v>
       </c>
-      <c r="AF132" t="s">
-        <v>76</v>
+      <c r="AG132">
+        <v>1</v>
+      </c>
+      <c r="AH132">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="AI132">
+        <v>26.72</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B133">
         <v>2017</v>
@@ -13241,13 +15239,25 @@
       <c r="AE133">
         <v>5</v>
       </c>
-      <c r="AF133" t="s">
-        <v>76</v>
+      <c r="AG133">
+        <v>1</v>
+      </c>
+      <c r="AH133">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="AI133">
+        <v>26.72</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B134">
         <v>2019</v>
@@ -13339,10 +15349,25 @@
       <c r="AF134">
         <v>3</v>
       </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="AI134">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B135">
         <v>2018</v>
@@ -13434,10 +15459,25 @@
       <c r="AF135">
         <v>3</v>
       </c>
+      <c r="AG135">
+        <v>2</v>
+      </c>
+      <c r="AH135">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="AI135">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B136">
         <v>2017</v>
@@ -13529,10 +15569,25 @@
       <c r="AF136">
         <v>3</v>
       </c>
+      <c r="AG136">
+        <v>2</v>
+      </c>
+      <c r="AH136">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="AI136">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -13624,10 +15679,25 @@
       <c r="AF137">
         <v>3</v>
       </c>
+      <c r="AG137">
+        <v>2</v>
+      </c>
+      <c r="AH137">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="AI137">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK137" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B138">
         <v>2018</v>
@@ -13719,10 +15789,25 @@
       <c r="AF138">
         <v>3</v>
       </c>
+      <c r="AG138">
+        <v>2</v>
+      </c>
+      <c r="AH138">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="AI138">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK138" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B139">
         <v>2017</v>
@@ -13814,10 +15899,25 @@
       <c r="AF139">
         <v>3</v>
       </c>
+      <c r="AG139">
+        <v>2</v>
+      </c>
+      <c r="AH139">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="AI139">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="AJ139" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK139" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B140">
         <v>2019</v>
@@ -13909,10 +16009,25 @@
       <c r="AF140">
         <v>4</v>
       </c>
+      <c r="AG140">
+        <v>2</v>
+      </c>
+      <c r="AH140">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="AI140">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK140" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B141">
         <v>2018</v>
@@ -14004,10 +16119,25 @@
       <c r="AF141">
         <v>4</v>
       </c>
+      <c r="AG141">
+        <v>2</v>
+      </c>
+      <c r="AH141">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="AI141">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B142">
         <v>2017</v>
@@ -14099,10 +16229,25 @@
       <c r="AF142">
         <v>4</v>
       </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="AI142">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B143">
         <v>2019</v>
@@ -14194,10 +16339,25 @@
       <c r="AF143">
         <v>3</v>
       </c>
+      <c r="AG143">
+        <v>3</v>
+      </c>
+      <c r="AH143">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="AI143">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B144">
         <v>2018</v>
@@ -14289,10 +16449,25 @@
       <c r="AF144">
         <v>3</v>
       </c>
+      <c r="AG144">
+        <v>3</v>
+      </c>
+      <c r="AH144">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="AI144">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B145">
         <v>2017</v>
@@ -14384,10 +16559,25 @@
       <c r="AF145">
         <v>3</v>
       </c>
+      <c r="AG145">
+        <v>3</v>
+      </c>
+      <c r="AH145">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="AI145">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK145" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B146">
         <v>2019</v>
@@ -14479,10 +16669,25 @@
       <c r="AF146">
         <v>3</v>
       </c>
+      <c r="AG146">
+        <v>1</v>
+      </c>
+      <c r="AH146">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="AI146">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK146" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B147">
         <v>2018</v>
@@ -14574,10 +16779,25 @@
       <c r="AF147">
         <v>3</v>
       </c>
+      <c r="AG147">
+        <v>1</v>
+      </c>
+      <c r="AH147">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="AI147">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK147" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B148">
         <v>2017</v>
@@ -14669,10 +16889,25 @@
       <c r="AF148">
         <v>3</v>
       </c>
+      <c r="AG148">
+        <v>1</v>
+      </c>
+      <c r="AH148">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="AI148">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK148" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B149">
         <v>2019</v>
@@ -14764,10 +16999,25 @@
       <c r="AF149">
         <v>2</v>
       </c>
+      <c r="AG149">
+        <v>2</v>
+      </c>
+      <c r="AH149">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="AI149">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B150">
         <v>2018</v>
@@ -14859,10 +17109,25 @@
       <c r="AF150">
         <v>2</v>
       </c>
+      <c r="AG150">
+        <v>2</v>
+      </c>
+      <c r="AH150">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="AI150">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B151">
         <v>2017</v>
@@ -14954,10 +17219,25 @@
       <c r="AF151">
         <v>2</v>
       </c>
+      <c r="AG151">
+        <v>2</v>
+      </c>
+      <c r="AH151">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="AI151">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B152">
         <v>2019</v>
@@ -15049,10 +17329,25 @@
       <c r="AF152">
         <v>3</v>
       </c>
+      <c r="AG152">
+        <v>1</v>
+      </c>
+      <c r="AH152">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="AI152">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B153">
         <v>2018</v>
@@ -15144,10 +17439,25 @@
       <c r="AF153">
         <v>3</v>
       </c>
+      <c r="AG153">
+        <v>1</v>
+      </c>
+      <c r="AH153">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="AI153">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B154">
         <v>2017</v>
@@ -15239,10 +17549,25 @@
       <c r="AF154">
         <v>3</v>
       </c>
+      <c r="AG154">
+        <v>1</v>
+      </c>
+      <c r="AH154">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="AI154">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B155">
         <v>2019</v>
@@ -15316,16 +17641,25 @@
       <c r="AD155">
         <v>3</v>
       </c>
-      <c r="AE155" t="s">
-        <v>76</v>
-      </c>
       <c r="AF155">
         <v>3</v>
       </c>
+      <c r="AH155">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="AI155">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B156">
         <v>2018</v>
@@ -15399,16 +17733,25 @@
       <c r="AD156">
         <v>3</v>
       </c>
-      <c r="AE156" t="s">
-        <v>76</v>
-      </c>
       <c r="AF156">
         <v>3</v>
       </c>
+      <c r="AH156">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="AI156">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B157">
         <v>2017</v>
@@ -15482,16 +17825,25 @@
       <c r="AD157">
         <v>3</v>
       </c>
-      <c r="AE157" t="s">
-        <v>76</v>
-      </c>
       <c r="AF157">
         <v>3</v>
       </c>
+      <c r="AH157">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="AI157">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B158">
         <v>2019</v>
@@ -15556,16 +17908,25 @@
       <c r="AD158">
         <v>2</v>
       </c>
-      <c r="AE158" t="s">
-        <v>76</v>
-      </c>
       <c r="AF158">
         <v>3</v>
       </c>
+      <c r="AH158">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="AI158">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B159">
         <v>2018</v>
@@ -15630,16 +17991,25 @@
       <c r="AD159">
         <v>2</v>
       </c>
-      <c r="AE159" t="s">
-        <v>76</v>
-      </c>
       <c r="AF159">
         <v>3</v>
       </c>
+      <c r="AH159">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="AI159">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B160">
         <v>2017</v>
@@ -15704,11 +18074,20 @@
       <c r="AD160">
         <v>2</v>
       </c>
-      <c r="AE160" t="s">
-        <v>76</v>
-      </c>
       <c r="AF160">
         <v>3</v>
+      </c>
+      <c r="AH160">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="AI160">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/df_claims_ratings.xlsx
+++ b/df_claims_ratings.xlsx
@@ -4597,12 +4597,12 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -4716,12 +4716,12 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8226,12 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK97" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>&lt; 10%</t>
+          <t>10%&lt;</t>
         </is>
       </c>
     </row>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>&lt; 10%</t>
+          <t>10%&lt;</t>
         </is>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>&lt; 10%</t>
+          <t>10%&lt;</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>&lt; 15%</t>
+          <t>15%&lt;</t>
         </is>
       </c>
       <c r="AK101" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>&lt; 15%</t>
+          <t>15%&lt;</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>&lt; 15%</t>
+          <t>15%&lt;</t>
         </is>
       </c>
       <c r="AK103" t="inlineStr">
@@ -12672,12 +12672,12 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -12789,12 +12789,12 @@
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK105" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -12906,12 +12906,12 @@
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK106" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK110" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="AJ111" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK111" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK112" t="inlineStr">
@@ -15129,12 +15129,12 @@
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -15246,12 +15246,12 @@
       </c>
       <c r="AJ126" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -15363,12 +15363,12 @@
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>&gt; 40%</t>
+          <t>40%&gt;</t>
         </is>
       </c>
     </row>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="AJ131" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK131" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK137" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="AJ138" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK138" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="AJ139" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK139" t="inlineStr">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="AJ146" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK146" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK147" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="AJ148" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK148" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
@@ -18498,7 +18498,7 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>&gt; 30%</t>
+          <t>30%&gt;</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">

--- a/df_claims_ratings.xlsx
+++ b/df_claims_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK160"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,16 @@
           <t>Categories Bodily Liability Profit Ratio</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Custom order Total Liability Profit Ratio</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Custom order Bodily Liability Profit Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -736,6 +746,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -853,6 +865,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -970,6 +984,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1089,6 +1105,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1208,6 +1226,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1327,6 +1347,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1444,6 +1466,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1561,6 +1585,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1678,6 +1704,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1795,6 +1823,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1912,6 +1942,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2029,6 +2061,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2146,6 +2180,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2263,6 +2299,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2380,6 +2418,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2497,6 +2537,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2614,6 +2656,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2731,6 +2775,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2848,6 +2894,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2965,6 +3013,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3082,6 +3132,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3199,6 +3251,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3316,6 +3370,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3433,6 +3489,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3550,6 +3608,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3667,6 +3727,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3784,6 +3846,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3901,6 +3965,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4018,6 +4084,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4135,6 +4203,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4252,6 +4322,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4369,6 +4441,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4486,6 +4560,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4597,14 +4673,16 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4716,14 +4794,16 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4835,14 +4915,16 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4952,7 +5034,7 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
@@ -4960,6 +5042,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5069,7 +5153,7 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
@@ -5077,6 +5161,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5186,7 +5272,7 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
@@ -5194,6 +5280,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5311,6 +5399,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5428,6 +5518,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5545,6 +5637,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5662,6 +5756,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5779,6 +5875,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5896,6 +5994,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6013,6 +6113,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6130,6 +6232,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6247,6 +6351,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6364,6 +6470,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6481,6 +6589,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6598,6 +6708,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6715,6 +6827,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6832,6 +6946,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6949,6 +7065,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7066,6 +7184,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7183,6 +7303,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7300,6 +7422,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7417,6 +7541,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7534,6 +7660,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7651,6 +7779,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7768,6 +7898,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7883,6 +8015,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8000,6 +8134,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8109,14 +8245,16 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8226,14 +8364,16 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8343,14 +8483,16 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8468,6 +8610,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8585,6 +8729,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8702,6 +8848,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8819,6 +8967,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8936,6 +9086,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9053,6 +9205,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9170,6 +9324,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9287,6 +9443,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9404,6 +9562,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9521,6 +9681,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9638,6 +9800,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9755,6 +9919,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9864,7 +10030,7 @@
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
@@ -9872,6 +10038,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9981,7 +10149,7 @@
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
@@ -9989,6 +10157,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10098,7 +10268,7 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
@@ -10106,6 +10276,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10215,7 +10387,7 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
@@ -10223,6 +10395,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10332,7 +10506,7 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
@@ -10340,6 +10514,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10449,7 +10625,7 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
@@ -10457,6 +10633,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10574,6 +10752,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10691,6 +10871,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10808,6 +10990,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10925,6 +11109,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11042,6 +11228,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11159,6 +11347,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11276,6 +11466,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11393,6 +11585,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11510,6 +11704,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11619,7 +11815,7 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
@@ -11627,6 +11823,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11736,7 +11934,7 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
@@ -11744,6 +11942,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11853,7 +12053,7 @@
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK97" t="inlineStr">
@@ -11861,6 +12061,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11975,9 +12177,11 @@
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>10%&lt;</t>
-        </is>
-      </c>
+          <t>&lt; 10%</t>
+        </is>
+      </c>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12092,9 +12296,11 @@
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>10%&lt;</t>
-        </is>
-      </c>
+          <t>&lt; 10%</t>
+        </is>
+      </c>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12209,9 +12415,11 @@
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>10%&lt;</t>
-        </is>
-      </c>
+          <t>&lt; 10%</t>
+        </is>
+      </c>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12321,7 +12529,7 @@
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>15%&lt;</t>
+          <t>&lt; 15%</t>
         </is>
       </c>
       <c r="AK101" t="inlineStr">
@@ -12329,6 +12537,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12438,7 +12648,7 @@
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>15%&lt;</t>
+          <t>&lt; 15%</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr">
@@ -12446,6 +12656,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12555,7 +12767,7 @@
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>15%&lt;</t>
+          <t>&lt; 15%</t>
         </is>
       </c>
       <c r="AK103" t="inlineStr">
@@ -12563,6 +12775,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12672,14 +12886,16 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12789,14 +13005,16 @@
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK105" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12906,14 +13124,16 @@
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK106" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13031,6 +13251,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13148,6 +13370,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13265,6 +13489,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13374,7 +13600,7 @@
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK110" t="inlineStr">
@@ -13382,6 +13608,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13491,7 +13719,7 @@
       </c>
       <c r="AJ111" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK111" t="inlineStr">
@@ -13499,6 +13727,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13608,7 +13838,7 @@
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK112" t="inlineStr">
@@ -13616,6 +13846,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13733,6 +13965,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13850,6 +14084,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13967,6 +14203,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14084,6 +14322,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14201,6 +14441,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14318,6 +14560,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14435,6 +14679,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14552,6 +14798,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14669,6 +14917,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14786,6 +15036,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14903,6 +15155,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15020,6 +15274,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15129,14 +15385,16 @@
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15246,14 +15504,16 @@
       </c>
       <c r="AJ126" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15363,14 +15623,16 @@
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>40%&gt;</t>
-        </is>
-      </c>
+          <t>&gt; 40%</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15488,6 +15750,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15605,6 +15869,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15722,6 +15988,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15823,7 +16091,7 @@
       </c>
       <c r="AJ131" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK131" t="inlineStr">
@@ -15831,6 +16099,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15932,7 +16202,7 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
@@ -15940,6 +16210,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16041,7 +16313,7 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
@@ -16049,6 +16321,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16166,6 +16440,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16283,6 +16559,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16400,6 +16678,8 @@
           <t>10 - 20%</t>
         </is>
       </c>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16509,7 +16789,7 @@
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK137" t="inlineStr">
@@ -16517,6 +16797,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16626,7 +16908,7 @@
       </c>
       <c r="AJ138" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK138" t="inlineStr">
@@ -16634,6 +16916,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16743,7 +17027,7 @@
       </c>
       <c r="AJ139" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK139" t="inlineStr">
@@ -16751,6 +17035,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16868,6 +17154,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16985,6 +17273,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17102,6 +17392,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17219,6 +17511,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17336,6 +17630,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17453,6 +17749,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17562,7 +17860,7 @@
       </c>
       <c r="AJ146" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK146" t="inlineStr">
@@ -17570,6 +17868,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17679,7 +17979,7 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK147" t="inlineStr">
@@ -17687,6 +17987,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17796,7 +18098,7 @@
       </c>
       <c r="AJ148" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK148" t="inlineStr">
@@ -17804,6 +18106,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17921,6 +18225,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18038,6 +18344,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18155,6 +18463,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18264,7 +18574,7 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
@@ -18272,6 +18582,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18381,7 +18693,7 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
@@ -18389,6 +18701,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18498,7 +18812,7 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>30%&gt;</t>
+          <t>&gt; 30%</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">
@@ -18506,6 +18820,8 @@
           <t>30 - 40%</t>
         </is>
       </c>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18615,6 +18931,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18724,6 +19042,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18833,6 +19153,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18936,6 +19258,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19039,6 +19363,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19142,6 +19468,8 @@
           <t>20 - 30%</t>
         </is>
       </c>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/df_claims_ratings.xlsx
+++ b/df_claims_ratings.xlsx
@@ -746,8 +746,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -865,8 +869,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,8 +992,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1105,8 +1117,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1226,8 +1242,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1347,8 +1367,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1466,8 +1490,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1585,8 +1613,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1704,8 +1736,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1823,8 +1859,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1942,8 +1982,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2061,8 +2105,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2180,8 +2228,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2299,8 +2351,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2418,8 +2474,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2537,8 +2597,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2656,8 +2720,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2775,8 +2843,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2894,8 +2966,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3013,8 +3089,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3132,8 +3212,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3251,8 +3335,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3370,8 +3458,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3489,8 +3581,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3608,8 +3704,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3727,8 +3827,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3846,8 +3950,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3965,8 +4073,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4084,8 +4196,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4203,8 +4319,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4322,8 +4442,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4441,8 +4565,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4560,8 +4688,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4681,8 +4813,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4802,8 +4938,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4923,8 +5063,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5042,8 +5186,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5161,8 +5309,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5280,8 +5432,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="AL40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5399,8 +5555,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5518,8 +5678,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="AL42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5637,8 +5801,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5756,8 +5924,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5875,8 +6047,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5994,8 +6170,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6113,8 +6293,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
+      <c r="AL47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6232,8 +6416,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6351,8 +6539,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
+      <c r="AL49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6470,8 +6662,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
+      <c r="AL50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6589,8 +6785,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6708,8 +6908,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6827,8 +7031,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
+      <c r="AL53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6946,8 +7154,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7065,8 +7277,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
+      <c r="AL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7184,8 +7400,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7303,8 +7523,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7422,8 +7646,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7541,8 +7769,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7660,8 +7892,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7779,8 +8015,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7898,8 +8138,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8015,8 +8259,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8134,8 +8382,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
+      <c r="AL64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8253,8 +8505,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
+      <c r="AL65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8372,8 +8628,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
+      <c r="AL66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8491,8 +8751,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
+      <c r="AL67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8610,8 +8874,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
+      <c r="AL68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8729,8 +8997,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
+      <c r="AL69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8848,8 +9120,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
+      <c r="AL70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8967,8 +9243,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
+      <c r="AL71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9086,8 +9366,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
+      <c r="AL72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9205,8 +9489,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9324,8 +9612,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
+      <c r="AL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9443,8 +9735,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr"/>
+      <c r="AL75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9562,8 +9858,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
+      <c r="AL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9681,8 +9981,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
+      <c r="AL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9800,8 +10104,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
+      <c r="AL78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9919,8 +10227,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
+      <c r="AL79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10038,8 +10350,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
+      <c r="AL80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10157,8 +10473,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
+      <c r="AL81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10276,8 +10596,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
+      <c r="AL82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10395,8 +10719,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
+      <c r="AL83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10514,8 +10842,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
+      <c r="AL84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10633,8 +10965,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
+      <c r="AL85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10752,8 +11088,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
+      <c r="AL86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10871,8 +11211,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
+      <c r="AL87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10990,8 +11334,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
+      <c r="AL88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11109,8 +11457,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
+      <c r="AL89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11228,8 +11580,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
+      <c r="AL90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11347,8 +11703,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
+      <c r="AL91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11466,8 +11826,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
+      <c r="AL92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11585,8 +11949,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
+      <c r="AL93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11704,8 +12072,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL94" t="inlineStr"/>
-      <c r="AM94" t="inlineStr"/>
+      <c r="AL94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11823,8 +12195,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
+      <c r="AL95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11942,8 +12318,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
+      <c r="AL96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12061,8 +12441,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
+      <c r="AL97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12180,8 +12564,12 @@
           <t>&lt; 10%</t>
         </is>
       </c>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr"/>
+      <c r="AL98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12299,8 +12687,12 @@
           <t>&lt; 10%</t>
         </is>
       </c>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
+      <c r="AL99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12418,8 +12810,12 @@
           <t>&lt; 10%</t>
         </is>
       </c>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
+      <c r="AL100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12537,8 +12933,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL101" t="inlineStr"/>
-      <c r="AM101" t="inlineStr"/>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12656,8 +13056,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12775,8 +13179,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12894,8 +13302,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
+      <c r="AL104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13013,8 +13425,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="inlineStr"/>
+      <c r="AL105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13132,8 +13548,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="inlineStr"/>
+      <c r="AL106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13251,8 +13671,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
+      <c r="AL107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13370,8 +13794,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
+      <c r="AL108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13489,8 +13917,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL109" t="inlineStr"/>
-      <c r="AM109" t="inlineStr"/>
+      <c r="AL109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13608,8 +14040,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
+      <c r="AL110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13727,8 +14163,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
+      <c r="AL111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13846,8 +14286,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
+      <c r="AL112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13965,8 +14409,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL113" t="inlineStr"/>
-      <c r="AM113" t="inlineStr"/>
+      <c r="AL113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14084,8 +14532,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL114" t="inlineStr"/>
-      <c r="AM114" t="inlineStr"/>
+      <c r="AL114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14203,8 +14655,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL115" t="inlineStr"/>
-      <c r="AM115" t="inlineStr"/>
+      <c r="AL115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14322,8 +14778,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL116" t="inlineStr"/>
-      <c r="AM116" t="inlineStr"/>
+      <c r="AL116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14441,8 +14901,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL117" t="inlineStr"/>
-      <c r="AM117" t="inlineStr"/>
+      <c r="AL117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14560,8 +15024,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL118" t="inlineStr"/>
-      <c r="AM118" t="inlineStr"/>
+      <c r="AL118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14679,8 +15147,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL119" t="inlineStr"/>
-      <c r="AM119" t="inlineStr"/>
+      <c r="AL119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14798,8 +15270,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL120" t="inlineStr"/>
-      <c r="AM120" t="inlineStr"/>
+      <c r="AL120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14917,8 +15393,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL121" t="inlineStr"/>
-      <c r="AM121" t="inlineStr"/>
+      <c r="AL121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15036,8 +15516,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL122" t="inlineStr"/>
-      <c r="AM122" t="inlineStr"/>
+      <c r="AL122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15155,8 +15639,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL123" t="inlineStr"/>
-      <c r="AM123" t="inlineStr"/>
+      <c r="AL123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15274,8 +15762,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL124" t="inlineStr"/>
-      <c r="AM124" t="inlineStr"/>
+      <c r="AL124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15393,8 +15885,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL125" t="inlineStr"/>
-      <c r="AM125" t="inlineStr"/>
+      <c r="AL125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15512,8 +16008,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL126" t="inlineStr"/>
-      <c r="AM126" t="inlineStr"/>
+      <c r="AL126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15631,8 +16131,12 @@
           <t>&gt; 40%</t>
         </is>
       </c>
-      <c r="AL127" t="inlineStr"/>
-      <c r="AM127" t="inlineStr"/>
+      <c r="AL127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15750,8 +16254,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL128" t="inlineStr"/>
-      <c r="AM128" t="inlineStr"/>
+      <c r="AL128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15869,8 +16377,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL129" t="inlineStr"/>
-      <c r="AM129" t="inlineStr"/>
+      <c r="AL129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15988,8 +16500,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL130" t="inlineStr"/>
-      <c r="AM130" t="inlineStr"/>
+      <c r="AL130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16099,8 +16615,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL131" t="inlineStr"/>
-      <c r="AM131" t="inlineStr"/>
+      <c r="AL131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16210,8 +16730,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL132" t="inlineStr"/>
-      <c r="AM132" t="inlineStr"/>
+      <c r="AL132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16321,8 +16845,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL133" t="inlineStr"/>
-      <c r="AM133" t="inlineStr"/>
+      <c r="AL133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16440,8 +16968,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL134" t="inlineStr"/>
-      <c r="AM134" t="inlineStr"/>
+      <c r="AL134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16559,8 +17091,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL135" t="inlineStr"/>
-      <c r="AM135" t="inlineStr"/>
+      <c r="AL135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16678,8 +17214,12 @@
           <t>10 - 20%</t>
         </is>
       </c>
-      <c r="AL136" t="inlineStr"/>
-      <c r="AM136" t="inlineStr"/>
+      <c r="AL136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16797,8 +17337,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL137" t="inlineStr"/>
-      <c r="AM137" t="inlineStr"/>
+      <c r="AL137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16916,8 +17460,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL138" t="inlineStr"/>
-      <c r="AM138" t="inlineStr"/>
+      <c r="AL138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17035,8 +17583,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL139" t="inlineStr"/>
-      <c r="AM139" t="inlineStr"/>
+      <c r="AL139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17154,8 +17706,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL140" t="inlineStr"/>
-      <c r="AM140" t="inlineStr"/>
+      <c r="AL140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17273,8 +17829,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL141" t="inlineStr"/>
-      <c r="AM141" t="inlineStr"/>
+      <c r="AL141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17392,8 +17952,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
+      <c r="AL142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17511,8 +18075,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL143" t="inlineStr"/>
-      <c r="AM143" t="inlineStr"/>
+      <c r="AL143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17630,8 +18198,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL144" t="inlineStr"/>
-      <c r="AM144" t="inlineStr"/>
+      <c r="AL144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17749,8 +18321,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL145" t="inlineStr"/>
-      <c r="AM145" t="inlineStr"/>
+      <c r="AL145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17868,8 +18444,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL146" t="inlineStr"/>
-      <c r="AM146" t="inlineStr"/>
+      <c r="AL146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17987,8 +18567,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL147" t="inlineStr"/>
-      <c r="AM147" t="inlineStr"/>
+      <c r="AL147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18106,8 +18690,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL148" t="inlineStr"/>
-      <c r="AM148" t="inlineStr"/>
+      <c r="AL148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18225,8 +18813,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL149" t="inlineStr"/>
-      <c r="AM149" t="inlineStr"/>
+      <c r="AL149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18344,8 +18936,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL150" t="inlineStr"/>
-      <c r="AM150" t="inlineStr"/>
+      <c r="AL150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18463,8 +19059,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL151" t="inlineStr"/>
-      <c r="AM151" t="inlineStr"/>
+      <c r="AL151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18582,8 +19182,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL152" t="inlineStr"/>
-      <c r="AM152" t="inlineStr"/>
+      <c r="AL152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18701,8 +19305,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL153" t="inlineStr"/>
-      <c r="AM153" t="inlineStr"/>
+      <c r="AL153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18820,8 +19428,12 @@
           <t>30 - 40%</t>
         </is>
       </c>
-      <c r="AL154" t="inlineStr"/>
-      <c r="AM154" t="inlineStr"/>
+      <c r="AL154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18931,8 +19543,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL155" t="inlineStr"/>
-      <c r="AM155" t="inlineStr"/>
+      <c r="AL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19042,8 +19658,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
+      <c r="AL156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19153,8 +19773,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL157" t="inlineStr"/>
-      <c r="AM157" t="inlineStr"/>
+      <c r="AL157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19258,8 +19882,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL158" t="inlineStr"/>
-      <c r="AM158" t="inlineStr"/>
+      <c r="AL158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19363,8 +19991,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL159" t="inlineStr"/>
-      <c r="AM159" t="inlineStr"/>
+      <c r="AL159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19468,8 +20100,12 @@
           <t>20 - 30%</t>
         </is>
       </c>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
+      <c r="AL160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
